--- a/riscv/lab5.xlsx
+++ b/riscv/lab5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>MultiCycle</t>
   </si>
@@ -52,6 +52,9 @@
     <t>cycles</t>
   </si>
   <si>
+    <t>21870(16) / 21866(32) / 21759(32 flush)</t>
+  </si>
+  <si>
     <t>insts</t>
   </si>
   <si>
@@ -61,13 +64,25 @@
     <t>median</t>
   </si>
   <si>
+    <t>13056(16) / 13008(32) / 12603(32 flush)</t>
+  </si>
+  <si>
     <t>multiply</t>
   </si>
   <si>
+    <t>30753 / 30753  / 29776(32 flush)</t>
+  </si>
+  <si>
     <t>qsort</t>
   </si>
   <si>
+    <t>16805(16) / 16721(32) / 15553(32 flush)</t>
+  </si>
+  <si>
     <t>vvadd</t>
+  </si>
+  <si>
+    <t>5797 / 5797 / 5796(32 flush)</t>
   </si>
 </sst>
 </file>
@@ -87,7 +102,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -115,27 +130,27 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -392,133 +407,142 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="20" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="22" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="23" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="22" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="23" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,15 +852,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="39" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="40" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="41" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="42" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="42" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="42" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="42" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="42" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="42" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="42" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="43" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="44" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="45" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="45" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="45" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="44" width="40.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="45" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="44" width="20.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -852,17 +876,17 @@
       <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -873,249 +897,309 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
+      <c r="I2" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="9">
         <v>25113</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
+      <c r="E4" s="9">
+        <v>21649</v>
+      </c>
+      <c r="F4" s="9">
+        <v>21992</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="9">
+        <v>22060</v>
+      </c>
+      <c r="I4" s="20">
+        <v>23463</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="22">
+      <c r="A5" s="12"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="23">
         <v>4168</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="23">
+        <v>4168</v>
+      </c>
       <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="23"/>
-      <c r="I5" s="24"/>
+      <c r="I5" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="33">
+        <v>13887</v>
+      </c>
+      <c r="E7" s="33">
+        <v>12323</v>
+      </c>
+      <c r="F7" s="33">
+        <v>12758</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="33">
+        <v>12809</v>
+      </c>
+      <c r="I7" s="35">
+        <v>13435</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
-      <c r="A7" s="11"/>
-      <c r="B7" s="29" t="s">
+      <c r="D8" s="23">
+        <v>2711</v>
+      </c>
+      <c r="E8" s="23">
+        <v>2711</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="25"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="31">
-        <v>13887</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="22">
-        <v>2711</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26" t="s">
+      <c r="D10" s="33">
+        <v>55417</v>
+      </c>
+      <c r="E10" s="33">
+        <v>28812</v>
+      </c>
+      <c r="F10" s="33">
+        <v>44337</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="33">
+        <v>36648</v>
+      </c>
+      <c r="I10" s="35">
+        <v>62868</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
-      <c r="A10" s="11"/>
-      <c r="B10" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="30" t="s">
+      <c r="D11" s="23">
+        <v>26750</v>
+      </c>
+      <c r="E11" s="23">
+        <v>26750</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="25"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="31">
-        <v>55417</v>
-      </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="22">
-        <v>26750</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26" t="s">
+      <c r="D13" s="33">
+        <v>25382</v>
+      </c>
+      <c r="E13" s="33">
+        <v>14718</v>
+      </c>
+      <c r="F13" s="33">
+        <v>18405</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="33">
+        <v>17911</v>
+      </c>
+      <c r="I13" s="35">
+        <v>24952</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
-      <c r="A13" s="11"/>
-      <c r="B13" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="30" t="s">
+      <c r="D14" s="23">
+        <v>11012</v>
+      </c>
+      <c r="E14" s="23">
+        <v>11012</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="31">
-        <v>25382</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="22">
-        <v>11012</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26" t="s">
+      <c r="D16" s="23">
+        <v>6446</v>
+      </c>
+      <c r="E16" s="23">
+        <v>5795</v>
+      </c>
+      <c r="F16" s="23">
+        <v>5795</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="23">
+        <v>5923</v>
+      </c>
+      <c r="I16" s="37">
+        <v>6060</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="22">
-        <v>6446</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="22">
+      <c r="D17" s="23">
         <v>1033</v>
       </c>
-      <c r="E17" s="23"/>
+      <c r="E17" s="23">
+        <v>1033</v>
+      </c>
       <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="23"/>
-      <c r="I17" s="24"/>
+      <c r="I17" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="38"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="9">
